--- a/result/problem_1/erf/result_2.xlsx
+++ b/result/problem_1/erf/result_2.xlsx
@@ -473,16 +473,16 @@
         <v>11370470</v>
       </c>
       <c r="C2" t="n">
-        <v>19395</v>
+        <v>21455</v>
       </c>
       <c r="D2" t="n">
-        <v>19535</v>
+        <v>21595</v>
       </c>
       <c r="E2" t="n">
         <v>15750</v>
       </c>
       <c r="F2" t="n">
-        <v>3785</v>
+        <v>5845</v>
       </c>
       <c r="G2" t="n">
         <v>140</v>
@@ -496,16 +496,16 @@
         <v>11372296</v>
       </c>
       <c r="C3" t="n">
-        <v>610</v>
+        <v>1830</v>
       </c>
       <c r="D3" t="n">
-        <v>2864</v>
+        <v>2079</v>
       </c>
       <c r="E3" t="n">
         <v>1350</v>
       </c>
       <c r="F3" t="n">
-        <v>1514</v>
+        <v>729</v>
       </c>
       <c r="G3" t="n">
         <v>249</v>
@@ -519,16 +519,16 @@
         <v>11372401</v>
       </c>
       <c r="C4" t="n">
-        <v>1573</v>
+        <v>2453</v>
       </c>
       <c r="D4" t="n">
-        <v>1680</v>
+        <v>2560</v>
       </c>
       <c r="E4" t="n">
         <v>1350</v>
       </c>
       <c r="F4" t="n">
-        <v>330</v>
+        <v>1210</v>
       </c>
       <c r="G4" t="n">
         <v>107</v>
@@ -542,16 +542,16 @@
         <v>11376198</v>
       </c>
       <c r="C5" t="n">
-        <v>3545</v>
+        <v>4407</v>
       </c>
       <c r="D5" t="n">
-        <v>4815</v>
+        <v>4599</v>
       </c>
       <c r="E5" t="n">
         <v>2250</v>
       </c>
       <c r="F5" t="n">
-        <v>2565</v>
+        <v>2349</v>
       </c>
       <c r="G5" t="n">
         <v>192</v>
@@ -565,16 +565,16 @@
         <v>11376201</v>
       </c>
       <c r="C6" t="n">
-        <v>3641</v>
+        <v>4599</v>
       </c>
       <c r="D6" t="n">
-        <v>4911</v>
+        <v>4791</v>
       </c>
       <c r="E6" t="n">
         <v>2250</v>
       </c>
       <c r="F6" t="n">
-        <v>2661</v>
+        <v>2541</v>
       </c>
       <c r="G6" t="n">
         <v>192</v>
@@ -588,16 +588,16 @@
         <v>11376202</v>
       </c>
       <c r="C7" t="n">
-        <v>3290</v>
+        <v>3642</v>
       </c>
       <c r="D7" t="n">
-        <v>5541</v>
+        <v>3897</v>
       </c>
       <c r="E7" t="n">
         <v>2250</v>
       </c>
       <c r="F7" t="n">
-        <v>3291</v>
+        <v>1647</v>
       </c>
       <c r="G7" t="n">
         <v>255</v>
@@ -614,13 +614,13 @@
         <v>3114</v>
       </c>
       <c r="D8" t="n">
-        <v>5368</v>
+        <v>3378</v>
       </c>
       <c r="E8" t="n">
         <v>2250</v>
       </c>
       <c r="F8" t="n">
-        <v>3118</v>
+        <v>1128</v>
       </c>
       <c r="G8" t="n">
         <v>264</v>
@@ -634,16 +634,16 @@
         <v>11376205</v>
       </c>
       <c r="C9" t="n">
-        <v>3833</v>
+        <v>4983</v>
       </c>
       <c r="D9" t="n">
-        <v>5098</v>
+        <v>5165</v>
       </c>
       <c r="E9" t="n">
         <v>2250</v>
       </c>
       <c r="F9" t="n">
-        <v>2848</v>
+        <v>2915</v>
       </c>
       <c r="G9" t="n">
         <v>182</v>
@@ -657,16 +657,16 @@
         <v>11376206</v>
       </c>
       <c r="C10" t="n">
-        <v>3924</v>
+        <v>5165</v>
       </c>
       <c r="D10" t="n">
-        <v>5189</v>
+        <v>5347</v>
       </c>
       <c r="E10" t="n">
         <v>2250</v>
       </c>
       <c r="F10" t="n">
-        <v>2939</v>
+        <v>3097</v>
       </c>
       <c r="G10" t="n">
         <v>182</v>
@@ -680,16 +680,16 @@
         <v>11376207</v>
       </c>
       <c r="C11" t="n">
-        <v>4015</v>
+        <v>5347</v>
       </c>
       <c r="D11" t="n">
-        <v>5280</v>
+        <v>5529</v>
       </c>
       <c r="E11" t="n">
         <v>2250</v>
       </c>
       <c r="F11" t="n">
-        <v>3030</v>
+        <v>3279</v>
       </c>
       <c r="G11" t="n">
         <v>182</v>
@@ -703,16 +703,16 @@
         <v>11376208</v>
       </c>
       <c r="C12" t="n">
-        <v>4612</v>
+        <v>5679</v>
       </c>
       <c r="D12" t="n">
-        <v>4719</v>
+        <v>5786</v>
       </c>
       <c r="E12" t="n">
         <v>2250</v>
       </c>
       <c r="F12" t="n">
-        <v>2469</v>
+        <v>3536</v>
       </c>
       <c r="G12" t="n">
         <v>107</v>
@@ -726,16 +726,16 @@
         <v>11376209</v>
       </c>
       <c r="C13" t="n">
-        <v>3737</v>
+        <v>4791</v>
       </c>
       <c r="D13" t="n">
-        <v>5007</v>
+        <v>4983</v>
       </c>
       <c r="E13" t="n">
         <v>2250</v>
       </c>
       <c r="F13" t="n">
-        <v>2757</v>
+        <v>2733</v>
       </c>
       <c r="G13" t="n">
         <v>192</v>
@@ -749,16 +749,16 @@
         <v>11376210</v>
       </c>
       <c r="C14" t="n">
-        <v>3375</v>
+        <v>3897</v>
       </c>
       <c r="D14" t="n">
-        <v>5626</v>
+        <v>4152</v>
       </c>
       <c r="E14" t="n">
         <v>2250</v>
       </c>
       <c r="F14" t="n">
-        <v>3376</v>
+        <v>1902</v>
       </c>
       <c r="G14" t="n">
         <v>255</v>
@@ -772,16 +772,16 @@
         <v>11376320</v>
       </c>
       <c r="C15" t="n">
-        <v>6851</v>
+        <v>7682</v>
       </c>
       <c r="D15" t="n">
-        <v>7600</v>
+        <v>7864</v>
       </c>
       <c r="E15" t="n">
         <v>6750</v>
       </c>
       <c r="F15" t="n">
-        <v>850</v>
+        <v>1114</v>
       </c>
       <c r="G15" t="n">
         <v>182</v>
@@ -795,16 +795,16 @@
         <v>11376333</v>
       </c>
       <c r="C16" t="n">
-        <v>23668</v>
+        <v>25780</v>
       </c>
       <c r="D16" t="n">
-        <v>27355</v>
+        <v>26035</v>
       </c>
       <c r="E16" t="n">
         <v>18000</v>
       </c>
       <c r="F16" t="n">
-        <v>9355</v>
+        <v>8035</v>
       </c>
       <c r="G16" t="n">
         <v>255</v>
@@ -818,16 +818,16 @@
         <v>11378469</v>
       </c>
       <c r="C17" t="n">
-        <v>12336</v>
+        <v>14233</v>
       </c>
       <c r="D17" t="n">
-        <v>12476</v>
+        <v>14373</v>
       </c>
       <c r="E17" t="n">
         <v>11250</v>
       </c>
       <c r="F17" t="n">
-        <v>1226</v>
+        <v>3123</v>
       </c>
       <c r="G17" t="n">
         <v>140</v>
@@ -841,16 +841,16 @@
         <v>11378587</v>
       </c>
       <c r="C18" t="n">
-        <v>22612</v>
+        <v>23668</v>
       </c>
       <c r="D18" t="n">
-        <v>26302</v>
+        <v>23932</v>
       </c>
       <c r="E18" t="n">
         <v>18000</v>
       </c>
       <c r="F18" t="n">
-        <v>8302</v>
+        <v>5932</v>
       </c>
       <c r="G18" t="n">
         <v>264</v>
@@ -864,16 +864,16 @@
         <v>11378588</v>
       </c>
       <c r="C19" t="n">
-        <v>23753</v>
+        <v>26035</v>
       </c>
       <c r="D19" t="n">
-        <v>27440</v>
+        <v>26290</v>
       </c>
       <c r="E19" t="n">
         <v>18000</v>
       </c>
       <c r="F19" t="n">
-        <v>9440</v>
+        <v>8290</v>
       </c>
       <c r="G19" t="n">
         <v>255</v>
@@ -887,16 +887,16 @@
         <v>11378590</v>
       </c>
       <c r="C20" t="n">
-        <v>23838</v>
+        <v>26290</v>
       </c>
       <c r="D20" t="n">
-        <v>27525</v>
+        <v>26545</v>
       </c>
       <c r="E20" t="n">
         <v>18000</v>
       </c>
       <c r="F20" t="n">
-        <v>9525</v>
+        <v>8545</v>
       </c>
       <c r="G20" t="n">
         <v>255</v>
@@ -910,16 +910,16 @@
         <v>11378591</v>
       </c>
       <c r="C21" t="n">
-        <v>23923</v>
+        <v>26545</v>
       </c>
       <c r="D21" t="n">
-        <v>27610</v>
+        <v>26800</v>
       </c>
       <c r="E21" t="n">
         <v>18000</v>
       </c>
       <c r="F21" t="n">
-        <v>9610</v>
+        <v>8800</v>
       </c>
       <c r="G21" t="n">
         <v>255</v>
@@ -933,16 +933,16 @@
         <v>11378592</v>
       </c>
       <c r="C22" t="n">
-        <v>24008</v>
+        <v>26800</v>
       </c>
       <c r="D22" t="n">
-        <v>27695</v>
+        <v>27055</v>
       </c>
       <c r="E22" t="n">
         <v>18000</v>
       </c>
       <c r="F22" t="n">
-        <v>9695</v>
+        <v>9055</v>
       </c>
       <c r="G22" t="n">
         <v>255</v>
@@ -956,16 +956,16 @@
         <v>11378593</v>
       </c>
       <c r="C23" t="n">
-        <v>22700</v>
+        <v>23932</v>
       </c>
       <c r="D23" t="n">
-        <v>26390</v>
+        <v>24196</v>
       </c>
       <c r="E23" t="n">
         <v>18000</v>
       </c>
       <c r="F23" t="n">
-        <v>8390</v>
+        <v>6196</v>
       </c>
       <c r="G23" t="n">
         <v>264</v>
@@ -982,13 +982,13 @@
         <v>21732</v>
       </c>
       <c r="D24" t="n">
-        <v>26478</v>
+        <v>22260</v>
       </c>
       <c r="E24" t="n">
         <v>18000</v>
       </c>
       <c r="F24" t="n">
-        <v>8478</v>
+        <v>4260</v>
       </c>
       <c r="G24" t="n">
         <v>528</v>
@@ -1002,16 +1002,16 @@
         <v>11378595</v>
       </c>
       <c r="C25" t="n">
-        <v>22876</v>
+        <v>24196</v>
       </c>
       <c r="D25" t="n">
-        <v>26566</v>
+        <v>24460</v>
       </c>
       <c r="E25" t="n">
         <v>18000</v>
       </c>
       <c r="F25" t="n">
-        <v>8566</v>
+        <v>6460</v>
       </c>
       <c r="G25" t="n">
         <v>264</v>
@@ -1025,16 +1025,16 @@
         <v>11378596</v>
       </c>
       <c r="C26" t="n">
-        <v>21996</v>
+        <v>22788</v>
       </c>
       <c r="D26" t="n">
-        <v>26654</v>
+        <v>23228</v>
       </c>
       <c r="E26" t="n">
         <v>18000</v>
       </c>
       <c r="F26" t="n">
-        <v>8654</v>
+        <v>5228</v>
       </c>
       <c r="G26" t="n">
         <v>440</v>
@@ -1048,16 +1048,16 @@
         <v>11378597</v>
       </c>
       <c r="C27" t="n">
-        <v>22084</v>
+        <v>23228</v>
       </c>
       <c r="D27" t="n">
-        <v>26742</v>
+        <v>23668</v>
       </c>
       <c r="E27" t="n">
         <v>18000</v>
       </c>
       <c r="F27" t="n">
-        <v>8742</v>
+        <v>5668</v>
       </c>
       <c r="G27" t="n">
         <v>440</v>
@@ -1071,16 +1071,16 @@
         <v>11378598</v>
       </c>
       <c r="C28" t="n">
-        <v>21820</v>
+        <v>22260</v>
       </c>
       <c r="D28" t="n">
-        <v>26830</v>
+        <v>22788</v>
       </c>
       <c r="E28" t="n">
         <v>18000</v>
       </c>
       <c r="F28" t="n">
-        <v>8830</v>
+        <v>4788</v>
       </c>
       <c r="G28" t="n">
         <v>528</v>
@@ -1094,16 +1094,16 @@
         <v>11378599</v>
       </c>
       <c r="C29" t="n">
-        <v>23228</v>
+        <v>24460</v>
       </c>
       <c r="D29" t="n">
-        <v>26918</v>
+        <v>24724</v>
       </c>
       <c r="E29" t="n">
         <v>18000</v>
       </c>
       <c r="F29" t="n">
-        <v>8918</v>
+        <v>6724</v>
       </c>
       <c r="G29" t="n">
         <v>264</v>
@@ -1117,16 +1117,16 @@
         <v>11378600</v>
       </c>
       <c r="C30" t="n">
-        <v>23316</v>
+        <v>24724</v>
       </c>
       <c r="D30" t="n">
-        <v>27006</v>
+        <v>24988</v>
       </c>
       <c r="E30" t="n">
         <v>18000</v>
       </c>
       <c r="F30" t="n">
-        <v>9006</v>
+        <v>6988</v>
       </c>
       <c r="G30" t="n">
         <v>264</v>
@@ -1140,16 +1140,16 @@
         <v>11378864</v>
       </c>
       <c r="C31" t="n">
-        <v>23404</v>
+        <v>24988</v>
       </c>
       <c r="D31" t="n">
-        <v>27094</v>
+        <v>25252</v>
       </c>
       <c r="E31" t="n">
         <v>18000</v>
       </c>
       <c r="F31" t="n">
-        <v>9094</v>
+        <v>7252</v>
       </c>
       <c r="G31" t="n">
         <v>264</v>
@@ -1163,16 +1163,16 @@
         <v>11378865</v>
       </c>
       <c r="C32" t="n">
-        <v>25904</v>
+        <v>27638</v>
       </c>
       <c r="D32" t="n">
-        <v>26011</v>
+        <v>27745</v>
       </c>
       <c r="E32" t="n">
         <v>18000</v>
       </c>
       <c r="F32" t="n">
-        <v>8011</v>
+        <v>9745</v>
       </c>
       <c r="G32" t="n">
         <v>107</v>
@@ -1189,13 +1189,13 @@
         <v>14806</v>
       </c>
       <c r="D33" t="n">
-        <v>15845</v>
+        <v>15070</v>
       </c>
       <c r="E33" t="n">
         <v>13500</v>
       </c>
       <c r="F33" t="n">
-        <v>2345</v>
+        <v>1570</v>
       </c>
       <c r="G33" t="n">
         <v>264</v>
@@ -1209,16 +1209,16 @@
         <v>11379278</v>
       </c>
       <c r="C34" t="n">
-        <v>15650</v>
+        <v>16002</v>
       </c>
       <c r="D34" t="n">
-        <v>15757</v>
+        <v>16109</v>
       </c>
       <c r="E34" t="n">
         <v>13500</v>
       </c>
       <c r="F34" t="n">
-        <v>2257</v>
+        <v>2609</v>
       </c>
       <c r="G34" t="n">
         <v>107</v>
@@ -1232,16 +1232,16 @@
         <v>11379877</v>
       </c>
       <c r="C35" t="n">
-        <v>1680</v>
+        <v>2560</v>
       </c>
       <c r="D35" t="n">
-        <v>1787</v>
+        <v>2667</v>
       </c>
       <c r="E35" t="n">
         <v>1350</v>
       </c>
       <c r="F35" t="n">
-        <v>437</v>
+        <v>1317</v>
       </c>
       <c r="G35" t="n">
         <v>107</v>
@@ -1255,16 +1255,16 @@
         <v>11380220</v>
       </c>
       <c r="C36" t="n">
-        <v>440</v>
+        <v>1320</v>
       </c>
       <c r="D36" t="n">
-        <v>2696</v>
+        <v>1575</v>
       </c>
       <c r="E36" t="n">
         <v>1350</v>
       </c>
       <c r="F36" t="n">
-        <v>1346</v>
+        <v>225</v>
       </c>
       <c r="G36" t="n">
         <v>255</v>
@@ -1281,13 +1281,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>2259</v>
+        <v>264</v>
       </c>
       <c r="E37" t="n">
         <v>1350</v>
       </c>
       <c r="F37" t="n">
-        <v>909</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>264</v>
@@ -1301,16 +1301,16 @@
         <v>11380367</v>
       </c>
       <c r="C38" t="n">
-        <v>789</v>
+        <v>2271</v>
       </c>
       <c r="D38" t="n">
-        <v>2081</v>
+        <v>2453</v>
       </c>
       <c r="E38" t="n">
         <v>1350</v>
       </c>
       <c r="F38" t="n">
-        <v>731</v>
+        <v>1103</v>
       </c>
       <c r="G38" t="n">
         <v>182</v>
@@ -1393,16 +1393,16 @@
         <v>11419198</v>
       </c>
       <c r="C42" t="n">
-        <v>3460</v>
+        <v>4152</v>
       </c>
       <c r="D42" t="n">
-        <v>5711</v>
+        <v>4407</v>
       </c>
       <c r="E42" t="n">
         <v>2250</v>
       </c>
       <c r="F42" t="n">
-        <v>3461</v>
+        <v>2157</v>
       </c>
       <c r="G42" t="n">
         <v>255</v>
@@ -1416,16 +1416,16 @@
         <v>11419298</v>
       </c>
       <c r="C43" t="n">
-        <v>3202</v>
+        <v>3378</v>
       </c>
       <c r="D43" t="n">
-        <v>5456</v>
+        <v>3642</v>
       </c>
       <c r="E43" t="n">
         <v>2250</v>
       </c>
       <c r="F43" t="n">
-        <v>3206</v>
+        <v>1392</v>
       </c>
       <c r="G43" t="n">
         <v>264</v>
@@ -1439,16 +1439,16 @@
         <v>11419674</v>
       </c>
       <c r="C44" t="n">
-        <v>4537</v>
+        <v>5529</v>
       </c>
       <c r="D44" t="n">
-        <v>5786</v>
+        <v>5679</v>
       </c>
       <c r="E44" t="n">
         <v>2250</v>
       </c>
       <c r="F44" t="n">
-        <v>3536</v>
+        <v>3429</v>
       </c>
       <c r="G44" t="n">
         <v>150</v>
@@ -1462,16 +1462,16 @@
         <v>11419894</v>
       </c>
       <c r="C45" t="n">
-        <v>6284</v>
+        <v>6698</v>
       </c>
       <c r="D45" t="n">
-        <v>7688</v>
+        <v>6962</v>
       </c>
       <c r="E45" t="n">
         <v>6750</v>
       </c>
       <c r="F45" t="n">
-        <v>938</v>
+        <v>212</v>
       </c>
       <c r="G45" t="n">
         <v>264</v>
@@ -1488,13 +1488,13 @@
         <v>16109</v>
       </c>
       <c r="D46" t="n">
-        <v>20564</v>
+        <v>16373</v>
       </c>
       <c r="E46" t="n">
         <v>15750</v>
       </c>
       <c r="F46" t="n">
-        <v>4814</v>
+        <v>623</v>
       </c>
       <c r="G46" t="n">
         <v>264</v>
@@ -1508,16 +1508,16 @@
         <v>11421997</v>
       </c>
       <c r="C47" t="n">
-        <v>11023</v>
+        <v>13713</v>
       </c>
       <c r="D47" t="n">
-        <v>13472</v>
+        <v>13895</v>
       </c>
       <c r="E47" t="n">
         <v>11250</v>
       </c>
       <c r="F47" t="n">
-        <v>2222</v>
+        <v>2645</v>
       </c>
       <c r="G47" t="n">
         <v>182</v>
@@ -1531,16 +1531,16 @@
         <v>11422014</v>
       </c>
       <c r="C48" t="n">
-        <v>14616</v>
+        <v>14694</v>
       </c>
       <c r="D48" t="n">
-        <v>14698</v>
+        <v>14776</v>
       </c>
       <c r="E48" t="n">
         <v>11250</v>
       </c>
       <c r="F48" t="n">
-        <v>3448</v>
+        <v>3526</v>
       </c>
       <c r="G48" t="n">
         <v>82</v>
@@ -1554,16 +1554,16 @@
         <v>11423450</v>
       </c>
       <c r="C49" t="n">
-        <v>6372</v>
+        <v>6962</v>
       </c>
       <c r="D49" t="n">
-        <v>7776</v>
+        <v>7226</v>
       </c>
       <c r="E49" t="n">
         <v>6750</v>
       </c>
       <c r="F49" t="n">
-        <v>1026</v>
+        <v>476</v>
       </c>
       <c r="G49" t="n">
         <v>264</v>
@@ -1577,16 +1577,16 @@
         <v>11424938</v>
       </c>
       <c r="C50" t="n">
-        <v>12476</v>
+        <v>14373</v>
       </c>
       <c r="D50" t="n">
-        <v>12583</v>
+        <v>14480</v>
       </c>
       <c r="E50" t="n">
         <v>11250</v>
       </c>
       <c r="F50" t="n">
-        <v>1333</v>
+        <v>3230</v>
       </c>
       <c r="G50" t="n">
         <v>107</v>
@@ -1600,16 +1600,16 @@
         <v>11426065</v>
       </c>
       <c r="C51" t="n">
-        <v>525</v>
+        <v>1575</v>
       </c>
       <c r="D51" t="n">
-        <v>2781</v>
+        <v>1830</v>
       </c>
       <c r="E51" t="n">
         <v>1350</v>
       </c>
       <c r="F51" t="n">
-        <v>1431</v>
+        <v>480</v>
       </c>
       <c r="G51" t="n">
         <v>255</v>
@@ -1623,16 +1623,16 @@
         <v>11426066</v>
       </c>
       <c r="C52" t="n">
-        <v>88</v>
+        <v>264</v>
       </c>
       <c r="D52" t="n">
-        <v>2347</v>
+        <v>528</v>
       </c>
       <c r="E52" t="n">
         <v>1350</v>
       </c>
       <c r="F52" t="n">
-        <v>997</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
         <v>264</v>
@@ -1646,16 +1646,16 @@
         <v>11426067</v>
       </c>
       <c r="C53" t="n">
-        <v>693</v>
+        <v>2079</v>
       </c>
       <c r="D53" t="n">
-        <v>1990</v>
+        <v>2271</v>
       </c>
       <c r="E53" t="n">
         <v>1350</v>
       </c>
       <c r="F53" t="n">
-        <v>640</v>
+        <v>921</v>
       </c>
       <c r="G53" t="n">
         <v>192</v>
@@ -1669,16 +1669,16 @@
         <v>11426068</v>
       </c>
       <c r="C54" t="n">
-        <v>1787</v>
+        <v>2667</v>
       </c>
       <c r="D54" t="n">
-        <v>1894</v>
+        <v>2774</v>
       </c>
       <c r="E54" t="n">
         <v>1350</v>
       </c>
       <c r="F54" t="n">
-        <v>544</v>
+        <v>1424</v>
       </c>
       <c r="G54" t="n">
         <v>107</v>
@@ -1692,16 +1692,16 @@
         <v>11426093</v>
       </c>
       <c r="C55" t="n">
-        <v>176</v>
+        <v>528</v>
       </c>
       <c r="D55" t="n">
-        <v>2435</v>
+        <v>792</v>
       </c>
       <c r="E55" t="n">
         <v>1350</v>
       </c>
       <c r="F55" t="n">
-        <v>1085</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
         <v>264</v>
@@ -1715,16 +1715,16 @@
         <v>11426095</v>
       </c>
       <c r="C56" t="n">
-        <v>264</v>
+        <v>792</v>
       </c>
       <c r="D56" t="n">
-        <v>2523</v>
+        <v>1056</v>
       </c>
       <c r="E56" t="n">
         <v>1350</v>
       </c>
       <c r="F56" t="n">
-        <v>1173</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
         <v>264</v>
@@ -1784,16 +1784,16 @@
         <v>11431025</v>
       </c>
       <c r="C59" t="n">
-        <v>2081</v>
+        <v>2774</v>
       </c>
       <c r="D59" t="n">
-        <v>2171</v>
+        <v>2864</v>
       </c>
       <c r="E59" t="n">
         <v>1350</v>
       </c>
       <c r="F59" t="n">
-        <v>821</v>
+        <v>1514</v>
       </c>
       <c r="G59" t="n">
         <v>90</v>
@@ -1830,16 +1830,16 @@
         <v>11431035</v>
       </c>
       <c r="C61" t="n">
-        <v>16197</v>
+        <v>16373</v>
       </c>
       <c r="D61" t="n">
-        <v>20652</v>
+        <v>16637</v>
       </c>
       <c r="E61" t="n">
         <v>15750</v>
       </c>
       <c r="F61" t="n">
-        <v>4902</v>
+        <v>887</v>
       </c>
       <c r="G61" t="n">
         <v>264</v>
@@ -1853,16 +1853,16 @@
         <v>11431036</v>
       </c>
       <c r="C62" t="n">
-        <v>16285</v>
+        <v>16637</v>
       </c>
       <c r="D62" t="n">
-        <v>20740</v>
+        <v>16901</v>
       </c>
       <c r="E62" t="n">
         <v>15750</v>
       </c>
       <c r="F62" t="n">
-        <v>4990</v>
+        <v>1151</v>
       </c>
       <c r="G62" t="n">
         <v>264</v>
@@ -1876,16 +1876,16 @@
         <v>11431037</v>
       </c>
       <c r="C63" t="n">
-        <v>16373</v>
+        <v>16901</v>
       </c>
       <c r="D63" t="n">
-        <v>20828</v>
+        <v>17165</v>
       </c>
       <c r="E63" t="n">
         <v>15750</v>
       </c>
       <c r="F63" t="n">
-        <v>5078</v>
+        <v>1415</v>
       </c>
       <c r="G63" t="n">
         <v>264</v>
@@ -1899,16 +1899,16 @@
         <v>11431039</v>
       </c>
       <c r="C64" t="n">
-        <v>17165</v>
+        <v>19277</v>
       </c>
       <c r="D64" t="n">
-        <v>21617</v>
+        <v>19532</v>
       </c>
       <c r="E64" t="n">
         <v>15750</v>
       </c>
       <c r="F64" t="n">
-        <v>5867</v>
+        <v>3782</v>
       </c>
       <c r="G64" t="n">
         <v>255</v>
@@ -1922,16 +1922,16 @@
         <v>11431040</v>
       </c>
       <c r="C65" t="n">
-        <v>17623</v>
+        <v>20363</v>
       </c>
       <c r="D65" t="n">
-        <v>20021</v>
+        <v>20545</v>
       </c>
       <c r="E65" t="n">
         <v>15750</v>
       </c>
       <c r="F65" t="n">
-        <v>4271</v>
+        <v>4795</v>
       </c>
       <c r="G65" t="n">
         <v>182</v>
@@ -1945,16 +1945,16 @@
         <v>11431047</v>
       </c>
       <c r="C66" t="n">
-        <v>16461</v>
+        <v>17165</v>
       </c>
       <c r="D66" t="n">
-        <v>20916</v>
+        <v>17429</v>
       </c>
       <c r="E66" t="n">
         <v>15750</v>
       </c>
       <c r="F66" t="n">
-        <v>5166</v>
+        <v>1679</v>
       </c>
       <c r="G66" t="n">
         <v>264</v>
@@ -1968,16 +1968,16 @@
         <v>11431109</v>
       </c>
       <c r="C67" t="n">
-        <v>9186</v>
+        <v>9465</v>
       </c>
       <c r="D67" t="n">
-        <v>12690</v>
+        <v>9786</v>
       </c>
       <c r="E67" t="n">
         <v>11250</v>
       </c>
       <c r="F67" t="n">
-        <v>1440</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
         <v>321</v>
@@ -1991,16 +1991,16 @@
         <v>11432574</v>
       </c>
       <c r="C68" t="n">
-        <v>9386</v>
+        <v>9786</v>
       </c>
       <c r="D68" t="n">
-        <v>13651</v>
+        <v>10050</v>
       </c>
       <c r="E68" t="n">
         <v>11250</v>
       </c>
       <c r="F68" t="n">
-        <v>2401</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
         <v>264</v>
@@ -2014,16 +2014,16 @@
         <v>11432578</v>
       </c>
       <c r="C69" t="n">
-        <v>9474</v>
+        <v>10050</v>
       </c>
       <c r="D69" t="n">
-        <v>13739</v>
+        <v>10314</v>
       </c>
       <c r="E69" t="n">
         <v>11250</v>
       </c>
       <c r="F69" t="n">
-        <v>2489</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
         <v>264</v>
@@ -2037,16 +2037,16 @@
         <v>11433849</v>
       </c>
       <c r="C70" t="n">
-        <v>6755</v>
+        <v>7490</v>
       </c>
       <c r="D70" t="n">
-        <v>7509</v>
+        <v>7682</v>
       </c>
       <c r="E70" t="n">
         <v>6750</v>
       </c>
       <c r="F70" t="n">
-        <v>759</v>
+        <v>932</v>
       </c>
       <c r="G70" t="n">
         <v>192</v>
@@ -2060,16 +2060,16 @@
         <v>11433852</v>
       </c>
       <c r="C71" t="n">
-        <v>6460</v>
+        <v>7226</v>
       </c>
       <c r="D71" t="n">
-        <v>7864</v>
+        <v>7490</v>
       </c>
       <c r="E71" t="n">
         <v>6750</v>
       </c>
       <c r="F71" t="n">
-        <v>1114</v>
+        <v>740</v>
       </c>
       <c r="G71" t="n">
         <v>264</v>
@@ -2083,10 +2083,10 @@
         <v>11433854</v>
       </c>
       <c r="C72" t="n">
-        <v>6014</v>
+        <v>6428</v>
       </c>
       <c r="D72" t="n">
-        <v>6284</v>
+        <v>6698</v>
       </c>
       <c r="E72" t="n">
         <v>6750</v>
@@ -2109,7 +2109,7 @@
         <v>7864</v>
       </c>
       <c r="D73" t="n">
-        <v>8832</v>
+        <v>8128</v>
       </c>
       <c r="E73" t="n">
         <v>9000</v>
@@ -2129,16 +2129,16 @@
         <v>11433858</v>
       </c>
       <c r="C74" t="n">
-        <v>8213</v>
+        <v>8911</v>
       </c>
       <c r="D74" t="n">
-        <v>8744</v>
+        <v>9093</v>
       </c>
       <c r="E74" t="n">
         <v>9000</v>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="G74" t="n">
         <v>182</v>
@@ -2152,10 +2152,10 @@
         <v>11433860</v>
       </c>
       <c r="C75" t="n">
-        <v>7952</v>
+        <v>8128</v>
       </c>
       <c r="D75" t="n">
-        <v>8920</v>
+        <v>8392</v>
       </c>
       <c r="E75" t="n">
         <v>9000</v>
@@ -2175,16 +2175,16 @@
         <v>11433861</v>
       </c>
       <c r="C76" t="n">
-        <v>8040</v>
+        <v>8392</v>
       </c>
       <c r="D76" t="n">
-        <v>9008</v>
+        <v>8656</v>
       </c>
       <c r="E76" t="n">
         <v>9000</v>
       </c>
       <c r="F76" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G76" t="n">
         <v>264</v>
@@ -2198,16 +2198,16 @@
         <v>11434200</v>
       </c>
       <c r="C77" t="n">
-        <v>10546</v>
+        <v>12945</v>
       </c>
       <c r="D77" t="n">
-        <v>13000</v>
+        <v>13137</v>
       </c>
       <c r="E77" t="n">
         <v>11250</v>
       </c>
       <c r="F77" t="n">
-        <v>1750</v>
+        <v>1887</v>
       </c>
       <c r="G77" t="n">
         <v>192</v>
@@ -2221,16 +2221,16 @@
         <v>11434209</v>
       </c>
       <c r="C78" t="n">
-        <v>10642</v>
+        <v>13137</v>
       </c>
       <c r="D78" t="n">
-        <v>13096</v>
+        <v>13329</v>
       </c>
       <c r="E78" t="n">
         <v>11250</v>
       </c>
       <c r="F78" t="n">
-        <v>1846</v>
+        <v>2079</v>
       </c>
       <c r="G78" t="n">
         <v>192</v>
@@ -2244,16 +2244,16 @@
         <v>11434210</v>
       </c>
       <c r="C79" t="n">
-        <v>11114</v>
+        <v>13895</v>
       </c>
       <c r="D79" t="n">
-        <v>13563</v>
+        <v>14077</v>
       </c>
       <c r="E79" t="n">
         <v>11250</v>
       </c>
       <c r="F79" t="n">
-        <v>2313</v>
+        <v>2827</v>
       </c>
       <c r="G79" t="n">
         <v>182</v>
@@ -2267,16 +2267,16 @@
         <v>11434211</v>
       </c>
       <c r="C80" t="n">
-        <v>9562</v>
+        <v>10314</v>
       </c>
       <c r="D80" t="n">
-        <v>13827</v>
+        <v>10578</v>
       </c>
       <c r="E80" t="n">
         <v>11250</v>
       </c>
       <c r="F80" t="n">
-        <v>2577</v>
+        <v>0</v>
       </c>
       <c r="G80" t="n">
         <v>264</v>
@@ -2290,16 +2290,16 @@
         <v>11434212</v>
       </c>
       <c r="C81" t="n">
-        <v>9650</v>
+        <v>10578</v>
       </c>
       <c r="D81" t="n">
-        <v>13915</v>
+        <v>10842</v>
       </c>
       <c r="E81" t="n">
         <v>11250</v>
       </c>
       <c r="F81" t="n">
-        <v>2665</v>
+        <v>0</v>
       </c>
       <c r="G81" t="n">
         <v>264</v>
@@ -2316,13 +2316,13 @@
         <v>9093</v>
       </c>
       <c r="D82" t="n">
-        <v>13381</v>
+        <v>9465</v>
       </c>
       <c r="E82" t="n">
         <v>11250</v>
       </c>
       <c r="F82" t="n">
-        <v>2131</v>
+        <v>0</v>
       </c>
       <c r="G82" t="n">
         <v>372</v>
@@ -2336,16 +2336,16 @@
         <v>11434214</v>
       </c>
       <c r="C83" t="n">
-        <v>9738</v>
+        <v>10842</v>
       </c>
       <c r="D83" t="n">
-        <v>14003</v>
+        <v>11106</v>
       </c>
       <c r="E83" t="n">
         <v>11250</v>
       </c>
       <c r="F83" t="n">
-        <v>2753</v>
+        <v>0</v>
       </c>
       <c r="G83" t="n">
         <v>264</v>
@@ -2359,16 +2359,16 @@
         <v>11434220</v>
       </c>
       <c r="C84" t="n">
-        <v>9826</v>
+        <v>11106</v>
       </c>
       <c r="D84" t="n">
-        <v>14091</v>
+        <v>11370</v>
       </c>
       <c r="E84" t="n">
         <v>11250</v>
       </c>
       <c r="F84" t="n">
-        <v>2841</v>
+        <v>120</v>
       </c>
       <c r="G84" t="n">
         <v>264</v>
@@ -2382,16 +2382,16 @@
         <v>11434221</v>
       </c>
       <c r="C85" t="n">
-        <v>9914</v>
+        <v>11370</v>
       </c>
       <c r="D85" t="n">
-        <v>14179</v>
+        <v>11634</v>
       </c>
       <c r="E85" t="n">
         <v>11250</v>
       </c>
       <c r="F85" t="n">
-        <v>2929</v>
+        <v>384</v>
       </c>
       <c r="G85" t="n">
         <v>264</v>
@@ -2405,16 +2405,16 @@
         <v>11434222</v>
       </c>
       <c r="C86" t="n">
-        <v>12690</v>
+        <v>14480</v>
       </c>
       <c r="D86" t="n">
-        <v>12797</v>
+        <v>14587</v>
       </c>
       <c r="E86" t="n">
         <v>11250</v>
       </c>
       <c r="F86" t="n">
-        <v>1547</v>
+        <v>3337</v>
       </c>
       <c r="G86" t="n">
         <v>107</v>
@@ -2451,16 +2451,16 @@
         <v>11434225</v>
       </c>
       <c r="C88" t="n">
-        <v>10002</v>
+        <v>11634</v>
       </c>
       <c r="D88" t="n">
-        <v>14267</v>
+        <v>11898</v>
       </c>
       <c r="E88" t="n">
         <v>11250</v>
       </c>
       <c r="F88" t="n">
-        <v>3017</v>
+        <v>648</v>
       </c>
       <c r="G88" t="n">
         <v>264</v>
@@ -2474,16 +2474,16 @@
         <v>11434226</v>
       </c>
       <c r="C89" t="n">
-        <v>12797</v>
+        <v>14587</v>
       </c>
       <c r="D89" t="n">
-        <v>12904</v>
+        <v>14694</v>
       </c>
       <c r="E89" t="n">
         <v>11250</v>
       </c>
       <c r="F89" t="n">
-        <v>1654</v>
+        <v>3444</v>
       </c>
       <c r="G89" t="n">
         <v>107</v>
@@ -2497,16 +2497,16 @@
         <v>11434227</v>
       </c>
       <c r="C90" t="n">
-        <v>10354</v>
+        <v>12690</v>
       </c>
       <c r="D90" t="n">
-        <v>14616</v>
+        <v>12945</v>
       </c>
       <c r="E90" t="n">
         <v>11250</v>
       </c>
       <c r="F90" t="n">
-        <v>3366</v>
+        <v>1695</v>
       </c>
       <c r="G90" t="n">
         <v>255</v>
@@ -2520,16 +2520,16 @@
         <v>11435497</v>
       </c>
       <c r="C91" t="n">
-        <v>15510</v>
+        <v>15862</v>
       </c>
       <c r="D91" t="n">
-        <v>15650</v>
+        <v>16002</v>
       </c>
       <c r="E91" t="n">
         <v>13500</v>
       </c>
       <c r="F91" t="n">
-        <v>2150</v>
+        <v>2502</v>
       </c>
       <c r="G91" t="n">
         <v>140</v>
@@ -2589,16 +2589,16 @@
         <v>11436770</v>
       </c>
       <c r="C94" t="n">
-        <v>352</v>
+        <v>1056</v>
       </c>
       <c r="D94" t="n">
-        <v>2611</v>
+        <v>1320</v>
       </c>
       <c r="E94" t="n">
         <v>1350</v>
       </c>
       <c r="F94" t="n">
-        <v>1261</v>
+        <v>0</v>
       </c>
       <c r="G94" t="n">
         <v>264</v>
@@ -2612,16 +2612,16 @@
         <v>11482073</v>
       </c>
       <c r="C95" t="n">
-        <v>24170</v>
+        <v>27286</v>
       </c>
       <c r="D95" t="n">
-        <v>26214</v>
+        <v>27478</v>
       </c>
       <c r="E95" t="n">
         <v>18000</v>
       </c>
       <c r="F95" t="n">
-        <v>8214</v>
+        <v>9478</v>
       </c>
       <c r="G95" t="n">
         <v>192</v>
@@ -2658,16 +2658,16 @@
         <v>11482080</v>
       </c>
       <c r="C97" t="n">
-        <v>25747</v>
+        <v>27478</v>
       </c>
       <c r="D97" t="n">
-        <v>27775</v>
+        <v>27638</v>
       </c>
       <c r="E97" t="n">
         <v>18000</v>
       </c>
       <c r="F97" t="n">
-        <v>9775</v>
+        <v>9638</v>
       </c>
       <c r="G97" t="n">
         <v>160</v>
@@ -2681,16 +2681,16 @@
         <v>11482081</v>
       </c>
       <c r="C98" t="n">
-        <v>23492</v>
+        <v>25252</v>
       </c>
       <c r="D98" t="n">
-        <v>27182</v>
+        <v>25516</v>
       </c>
       <c r="E98" t="n">
         <v>18000</v>
       </c>
       <c r="F98" t="n">
-        <v>9182</v>
+        <v>7516</v>
       </c>
       <c r="G98" t="n">
         <v>264</v>
@@ -2704,16 +2704,16 @@
         <v>11482082</v>
       </c>
       <c r="C99" t="n">
-        <v>23580</v>
+        <v>25516</v>
       </c>
       <c r="D99" t="n">
-        <v>27270</v>
+        <v>25780</v>
       </c>
       <c r="E99" t="n">
         <v>18000</v>
       </c>
       <c r="F99" t="n">
-        <v>9270</v>
+        <v>7780</v>
       </c>
       <c r="G99" t="n">
         <v>264</v>
@@ -2727,16 +2727,16 @@
         <v>11484428</v>
       </c>
       <c r="C100" t="n">
-        <v>8128</v>
+        <v>8656</v>
       </c>
       <c r="D100" t="n">
-        <v>9093</v>
+        <v>8911</v>
       </c>
       <c r="E100" t="n">
         <v>9000</v>
       </c>
       <c r="F100" t="n">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="G100" t="n">
         <v>255</v>
@@ -2750,16 +2750,16 @@
         <v>11485943</v>
       </c>
       <c r="C101" t="n">
-        <v>5914</v>
+        <v>6128</v>
       </c>
       <c r="D101" t="n">
-        <v>7413</v>
+        <v>6428</v>
       </c>
       <c r="E101" t="n">
         <v>6750</v>
       </c>
       <c r="F101" t="n">
-        <v>663</v>
+        <v>0</v>
       </c>
       <c r="G101" t="n">
         <v>300</v>
@@ -2776,13 +2776,13 @@
         <v>5807</v>
       </c>
       <c r="D102" t="n">
-        <v>7313</v>
+        <v>6128</v>
       </c>
       <c r="E102" t="n">
         <v>6750</v>
       </c>
       <c r="F102" t="n">
-        <v>563</v>
+        <v>0</v>
       </c>
       <c r="G102" t="n">
         <v>321</v>
@@ -2796,16 +2796,16 @@
         <v>11486387</v>
       </c>
       <c r="C103" t="n">
-        <v>14894</v>
+        <v>15070</v>
       </c>
       <c r="D103" t="n">
-        <v>15933</v>
+        <v>15334</v>
       </c>
       <c r="E103" t="n">
         <v>13500</v>
       </c>
       <c r="F103" t="n">
-        <v>2433</v>
+        <v>1834</v>
       </c>
       <c r="G103" t="n">
         <v>264</v>
@@ -2819,16 +2819,16 @@
         <v>11486388</v>
       </c>
       <c r="C104" t="n">
-        <v>14982</v>
+        <v>15334</v>
       </c>
       <c r="D104" t="n">
-        <v>16021</v>
+        <v>15598</v>
       </c>
       <c r="E104" t="n">
         <v>13500</v>
       </c>
       <c r="F104" t="n">
-        <v>2521</v>
+        <v>2098</v>
       </c>
       <c r="G104" t="n">
         <v>264</v>
@@ -2842,16 +2842,16 @@
         <v>11486390</v>
       </c>
       <c r="C105" t="n">
-        <v>15070</v>
+        <v>15598</v>
       </c>
       <c r="D105" t="n">
-        <v>16109</v>
+        <v>15862</v>
       </c>
       <c r="E105" t="n">
         <v>13500</v>
       </c>
       <c r="F105" t="n">
-        <v>2609</v>
+        <v>2362</v>
       </c>
       <c r="G105" t="n">
         <v>264</v>
@@ -2865,16 +2865,16 @@
         <v>11487122</v>
       </c>
       <c r="C106" t="n">
-        <v>10090</v>
+        <v>11898</v>
       </c>
       <c r="D106" t="n">
-        <v>14355</v>
+        <v>12162</v>
       </c>
       <c r="E106" t="n">
         <v>11250</v>
       </c>
       <c r="F106" t="n">
-        <v>3105</v>
+        <v>912</v>
       </c>
       <c r="G106" t="n">
         <v>264</v>
@@ -2888,16 +2888,16 @@
         <v>11487312</v>
       </c>
       <c r="C107" t="n">
-        <v>12258</v>
+        <v>14077</v>
       </c>
       <c r="D107" t="n">
-        <v>14776</v>
+        <v>14233</v>
       </c>
       <c r="E107" t="n">
         <v>11250</v>
       </c>
       <c r="F107" t="n">
-        <v>3526</v>
+        <v>2983</v>
       </c>
       <c r="G107" t="n">
         <v>156</v>
@@ -2911,16 +2911,16 @@
         <v>11487822</v>
       </c>
       <c r="C108" t="n">
-        <v>10178</v>
+        <v>12162</v>
       </c>
       <c r="D108" t="n">
-        <v>14443</v>
+        <v>12426</v>
       </c>
       <c r="E108" t="n">
         <v>11250</v>
       </c>
       <c r="F108" t="n">
-        <v>3193</v>
+        <v>1176</v>
       </c>
       <c r="G108" t="n">
         <v>264</v>
@@ -2934,16 +2934,16 @@
         <v>11487823</v>
       </c>
       <c r="C109" t="n">
-        <v>10266</v>
+        <v>12426</v>
       </c>
       <c r="D109" t="n">
-        <v>14531</v>
+        <v>12690</v>
       </c>
       <c r="E109" t="n">
         <v>11250</v>
       </c>
       <c r="F109" t="n">
-        <v>3281</v>
+        <v>1440</v>
       </c>
       <c r="G109" t="n">
         <v>264</v>
@@ -2957,16 +2957,16 @@
         <v>11487826</v>
       </c>
       <c r="C110" t="n">
-        <v>10738</v>
+        <v>13329</v>
       </c>
       <c r="D110" t="n">
-        <v>13192</v>
+        <v>13521</v>
       </c>
       <c r="E110" t="n">
         <v>11250</v>
       </c>
       <c r="F110" t="n">
-        <v>1942</v>
+        <v>2271</v>
       </c>
       <c r="G110" t="n">
         <v>192</v>
@@ -2980,16 +2980,16 @@
         <v>11489679</v>
       </c>
       <c r="C111" t="n">
-        <v>17714</v>
+        <v>20545</v>
       </c>
       <c r="D111" t="n">
-        <v>20112</v>
+        <v>20727</v>
       </c>
       <c r="E111" t="n">
         <v>15750</v>
       </c>
       <c r="F111" t="n">
-        <v>4362</v>
+        <v>4977</v>
       </c>
       <c r="G111" t="n">
         <v>182</v>
@@ -3003,16 +3003,16 @@
         <v>11489680</v>
       </c>
       <c r="C112" t="n">
-        <v>17805</v>
+        <v>20727</v>
       </c>
       <c r="D112" t="n">
-        <v>20203</v>
+        <v>20909</v>
       </c>
       <c r="E112" t="n">
         <v>15750</v>
       </c>
       <c r="F112" t="n">
-        <v>4453</v>
+        <v>5159</v>
       </c>
       <c r="G112" t="n">
         <v>182</v>
@@ -3049,16 +3049,16 @@
         <v>11489706</v>
       </c>
       <c r="C114" t="n">
-        <v>16549</v>
+        <v>17429</v>
       </c>
       <c r="D114" t="n">
-        <v>21004</v>
+        <v>17693</v>
       </c>
       <c r="E114" t="n">
         <v>15750</v>
       </c>
       <c r="F114" t="n">
-        <v>5254</v>
+        <v>1943</v>
       </c>
       <c r="G114" t="n">
         <v>264</v>
@@ -3072,16 +3072,16 @@
         <v>11489707</v>
       </c>
       <c r="C115" t="n">
-        <v>17896</v>
+        <v>20909</v>
       </c>
       <c r="D115" t="n">
-        <v>20294</v>
+        <v>21091</v>
       </c>
       <c r="E115" t="n">
         <v>15750</v>
       </c>
       <c r="F115" t="n">
-        <v>4544</v>
+        <v>5341</v>
       </c>
       <c r="G115" t="n">
         <v>182</v>
@@ -3095,16 +3095,16 @@
         <v>11489708</v>
       </c>
       <c r="C116" t="n">
-        <v>16637</v>
+        <v>17693</v>
       </c>
       <c r="D116" t="n">
-        <v>21092</v>
+        <v>17957</v>
       </c>
       <c r="E116" t="n">
         <v>15750</v>
       </c>
       <c r="F116" t="n">
-        <v>5342</v>
+        <v>2207</v>
       </c>
       <c r="G116" t="n">
         <v>264</v>
@@ -3118,16 +3118,16 @@
         <v>11489709</v>
       </c>
       <c r="C117" t="n">
-        <v>19535</v>
+        <v>21595</v>
       </c>
       <c r="D117" t="n">
-        <v>19642</v>
+        <v>21702</v>
       </c>
       <c r="E117" t="n">
         <v>15750</v>
       </c>
       <c r="F117" t="n">
-        <v>3892</v>
+        <v>5952</v>
       </c>
       <c r="G117" t="n">
         <v>107</v>
@@ -3141,16 +3141,16 @@
         <v>11489710</v>
       </c>
       <c r="C118" t="n">
-        <v>17335</v>
+        <v>19787</v>
       </c>
       <c r="D118" t="n">
-        <v>19738</v>
+        <v>19979</v>
       </c>
       <c r="E118" t="n">
         <v>15750</v>
       </c>
       <c r="F118" t="n">
-        <v>3988</v>
+        <v>4229</v>
       </c>
       <c r="G118" t="n">
         <v>192</v>
@@ -3164,16 +3164,16 @@
         <v>11489719</v>
       </c>
       <c r="C119" t="n">
-        <v>16725</v>
+        <v>17957</v>
       </c>
       <c r="D119" t="n">
-        <v>21180</v>
+        <v>18221</v>
       </c>
       <c r="E119" t="n">
         <v>15750</v>
       </c>
       <c r="F119" t="n">
-        <v>5430</v>
+        <v>2471</v>
       </c>
       <c r="G119" t="n">
         <v>264</v>
@@ -3187,16 +3187,16 @@
         <v>11489723</v>
       </c>
       <c r="C120" t="n">
-        <v>16813</v>
+        <v>18221</v>
       </c>
       <c r="D120" t="n">
-        <v>21268</v>
+        <v>18485</v>
       </c>
       <c r="E120" t="n">
         <v>15750</v>
       </c>
       <c r="F120" t="n">
-        <v>5518</v>
+        <v>2735</v>
       </c>
       <c r="G120" t="n">
         <v>264</v>
@@ -3210,16 +3210,16 @@
         <v>11489724</v>
       </c>
       <c r="C121" t="n">
-        <v>16901</v>
+        <v>18485</v>
       </c>
       <c r="D121" t="n">
-        <v>21356</v>
+        <v>18749</v>
       </c>
       <c r="E121" t="n">
         <v>15750</v>
       </c>
       <c r="F121" t="n">
-        <v>5606</v>
+        <v>2999</v>
       </c>
       <c r="G121" t="n">
         <v>264</v>
@@ -3233,16 +3233,16 @@
         <v>11489726</v>
       </c>
       <c r="C122" t="n">
-        <v>17987</v>
+        <v>21091</v>
       </c>
       <c r="D122" t="n">
-        <v>20385</v>
+        <v>21273</v>
       </c>
       <c r="E122" t="n">
         <v>15750</v>
       </c>
       <c r="F122" t="n">
-        <v>4635</v>
+        <v>5523</v>
       </c>
       <c r="G122" t="n">
         <v>182</v>
@@ -3256,16 +3256,16 @@
         <v>11489824</v>
       </c>
       <c r="C123" t="n">
-        <v>16989</v>
+        <v>18749</v>
       </c>
       <c r="D123" t="n">
-        <v>21444</v>
+        <v>19013</v>
       </c>
       <c r="E123" t="n">
         <v>15750</v>
       </c>
       <c r="F123" t="n">
-        <v>5694</v>
+        <v>3263</v>
       </c>
       <c r="G123" t="n">
         <v>264</v>
@@ -3279,16 +3279,16 @@
         <v>11489825</v>
       </c>
       <c r="C124" t="n">
-        <v>17431</v>
+        <v>19979</v>
       </c>
       <c r="D124" t="n">
-        <v>19834</v>
+        <v>20171</v>
       </c>
       <c r="E124" t="n">
         <v>15750</v>
       </c>
       <c r="F124" t="n">
-        <v>4084</v>
+        <v>4421</v>
       </c>
       <c r="G124" t="n">
         <v>192</v>
@@ -3302,16 +3302,16 @@
         <v>11489828</v>
       </c>
       <c r="C125" t="n">
-        <v>18078</v>
+        <v>21273</v>
       </c>
       <c r="D125" t="n">
-        <v>20476</v>
+        <v>21455</v>
       </c>
       <c r="E125" t="n">
         <v>15750</v>
       </c>
       <c r="F125" t="n">
-        <v>4726</v>
+        <v>5705</v>
       </c>
       <c r="G125" t="n">
         <v>182</v>
@@ -3325,16 +3325,16 @@
         <v>11489830</v>
       </c>
       <c r="C126" t="n">
-        <v>17077</v>
+        <v>19013</v>
       </c>
       <c r="D126" t="n">
-        <v>21532</v>
+        <v>19277</v>
       </c>
       <c r="E126" t="n">
         <v>15750</v>
       </c>
       <c r="F126" t="n">
-        <v>5782</v>
+        <v>3527</v>
       </c>
       <c r="G126" t="n">
         <v>264</v>
@@ -3348,16 +3348,16 @@
         <v>11489854</v>
       </c>
       <c r="C127" t="n">
-        <v>17250</v>
+        <v>19532</v>
       </c>
       <c r="D127" t="n">
-        <v>21702</v>
+        <v>19787</v>
       </c>
       <c r="E127" t="n">
         <v>15750</v>
       </c>
       <c r="F127" t="n">
-        <v>5952</v>
+        <v>4037</v>
       </c>
       <c r="G127" t="n">
         <v>255</v>
@@ -3371,16 +3371,16 @@
         <v>11493542</v>
       </c>
       <c r="C128" t="n">
-        <v>10834</v>
+        <v>13521</v>
       </c>
       <c r="D128" t="n">
-        <v>13288</v>
+        <v>13713</v>
       </c>
       <c r="E128" t="n">
         <v>11250</v>
       </c>
       <c r="F128" t="n">
-        <v>2038</v>
+        <v>2463</v>
       </c>
       <c r="G128" t="n">
         <v>192</v>
@@ -3394,16 +3394,16 @@
         <v>11494478</v>
       </c>
       <c r="C129" t="n">
-        <v>24093</v>
+        <v>27055</v>
       </c>
       <c r="D129" t="n">
-        <v>27852</v>
+        <v>27286</v>
       </c>
       <c r="E129" t="n">
         <v>18000</v>
       </c>
       <c r="F129" t="n">
-        <v>9852</v>
+        <v>9286</v>
       </c>
       <c r="G129" t="n">
         <v>231</v>
@@ -3417,16 +3417,16 @@
         <v>11494520</v>
       </c>
       <c r="C130" t="n">
-        <v>26011</v>
+        <v>27745</v>
       </c>
       <c r="D130" t="n">
-        <v>26118</v>
+        <v>27852</v>
       </c>
       <c r="E130" t="n">
         <v>18000</v>
       </c>
       <c r="F130" t="n">
-        <v>8118</v>
+        <v>9852</v>
       </c>
       <c r="G130" t="n">
         <v>107</v>
@@ -3440,16 +3440,16 @@
         <v>11499229</v>
       </c>
       <c r="C131" t="n">
-        <v>17527</v>
+        <v>20171</v>
       </c>
       <c r="D131" t="n">
-        <v>19930</v>
+        <v>20363</v>
       </c>
       <c r="E131" t="n">
         <v>15750</v>
       </c>
       <c r="F131" t="n">
-        <v>4180</v>
+        <v>4613</v>
       </c>
       <c r="G131" t="n">
         <v>192</v>
